--- a/design-document/ScreenSetting.xlsx
+++ b/design-document/ScreenSetting.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
     <sheet name="02_Item Definition" sheetId="4" r:id="rId2"/>
     <sheet name="03_Definition" sheetId="5" r:id="rId3"/>
     <sheet name="04_Check Condition Monadic" sheetId="2" r:id="rId4"/>
+    <sheet name="06_Mapping Class, Action" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$N$5</definedName>
@@ -20,7 +24,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item Definition'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Condition Monadic'!$1:$3</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="4">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
+    <definedName name="ああ" localSheetId="4">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -67,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>－</t>
     <phoneticPr fontId="0"/>
@@ -311,6 +317,18 @@
   </si>
   <si>
     <t>Form number</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>BLO</t>
+  </si>
+  <si>
+    <t>VIEW</t>
   </si>
 </sst>
 </file>
@@ -370,7 +388,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -384,7 +402,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +427,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -701,6 +725,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -709,7 +839,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -804,48 +934,84 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
@@ -860,69 +1026,70 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3778,6 +3945,691 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2455333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>663787</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9177866" cy="663787"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Setting</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD007</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01_Screen Layout"/>
+      <sheetName val="02_Item Definition"/>
+      <sheetName val="03_Definition"/>
+      <sheetName val="04_check Condition Monadic"/>
+      <sheetName val="05_Check Condition"/>
+      <sheetName val="06_Mapping Class, Action"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4043,7 +4895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -4303,225 +5155,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="40" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="41"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="41" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="41"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="57"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="20.7" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="60"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1">
       <c r="A9" s="30">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="52" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1">
       <c r="A14" s="30">
         <v>1</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="49" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:12" ht="26.7" customHeight="1">
       <c r="A15" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="49" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:12" ht="35.35" customHeight="1">
       <c r="A16" s="30">
         <v>3</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="13.35" customHeight="1"/>
     <row r="21" spans="1:11" ht="11.35" customHeight="1"/>
@@ -4567,69 +5419,65 @@
       <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -4643,17 +5491,21 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:L9"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
     <mergeCell ref="E14:L14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4779,7 +5631,7 @@
       <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4800,7 +5652,7 @@
       <c r="L4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -4827,7 +5679,7 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="35" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -4848,10 +5700,10 @@
       <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="35" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -4875,7 +5727,7 @@
       <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="35" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4896,10 +5748,10 @@
       <c r="L6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="35" t="s">
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -4907,7 +5759,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="F7" s="74"/>
+      <c r="F7" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
@@ -4918,4 +5770,311 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35"/>
+  <cols>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="11" max="24" width="8.88671875" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:24" s="87" customFormat="1">
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:24" s="87" customFormat="1">
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" s="87" customFormat="1"/>
+    <row r="18" s="87" customFormat="1"/>
+    <row r="19" s="87" customFormat="1"/>
+    <row r="20" s="87" customFormat="1"/>
+    <row r="21" s="87" customFormat="1"/>
+    <row r="22" s="87" customFormat="1"/>
+    <row r="23" s="87" customFormat="1"/>
+    <row r="24" s="87" customFormat="1"/>
+    <row r="25" s="87" customFormat="1"/>
+    <row r="26" s="87" customFormat="1"/>
+    <row r="27" s="87" customFormat="1"/>
+    <row r="28" s="87" customFormat="1"/>
+    <row r="29" s="87" customFormat="1"/>
+    <row r="30" s="87" customFormat="1"/>
+    <row r="31" s="87" customFormat="1"/>
+    <row r="32" s="87" customFormat="1"/>
+    <row r="33" s="87" customFormat="1"/>
+    <row r="34" s="87" customFormat="1"/>
+    <row r="35" s="87" customFormat="1"/>
+    <row r="36" s="87" customFormat="1"/>
+    <row r="37" s="87" customFormat="1"/>
+    <row r="38" s="87" customFormat="1"/>
+    <row r="39" s="87" customFormat="1"/>
+    <row r="40" s="87" customFormat="1"/>
+    <row r="41" s="87" customFormat="1"/>
+    <row r="42" s="87" customFormat="1"/>
+    <row r="43" s="87" customFormat="1"/>
+    <row r="44" s="87" customFormat="1"/>
+    <row r="45" s="87" customFormat="1"/>
+    <row r="46" s="87" customFormat="1"/>
+    <row r="47" s="87" customFormat="1"/>
+    <row r="48" s="87" customFormat="1"/>
+    <row r="49" s="87" customFormat="1"/>
+    <row r="50" s="87" customFormat="1"/>
+    <row r="51" s="87" customFormat="1"/>
+    <row r="52" s="87" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design-document/ScreenSetting.xlsx
+++ b/design-document/ScreenSetting.xlsx
@@ -4,29 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
     <sheet name="02_Item Definition" sheetId="4" r:id="rId2"/>
     <sheet name="03_Definition" sheetId="5" r:id="rId3"/>
     <sheet name="04_Check Condition Monadic" sheetId="2" r:id="rId4"/>
-    <sheet name="06_Mapping Class, Action" sheetId="6" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$N$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$K$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$L$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$J$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item Definition'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Condition Monadic'!$1:$3</definedName>
-    <definedName name="YAJI_MT_登録仕訳" localSheetId="4">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
-    <definedName name="ああ" localSheetId="4">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -44,7 +38,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>－</t>
     <phoneticPr fontId="0"/>
@@ -103,9 +97,6 @@
     <t>Background</t>
   </si>
   <si>
-    <t>Image error</t>
-  </si>
-  <si>
     <t>imgBackground</t>
   </si>
   <si>
@@ -128,26 +119,6 @@
 address</t>
   </si>
   <si>
-    <t>Full-width
-Kana</t>
-  </si>
-  <si>
-    <t>Double-byte character</t>
-  </si>
-  <si>
-    <t>Half size
-Alphameric characters</t>
-  </si>
-  <si>
-    <t>Half size
-A number
-Symbol Yes</t>
-  </si>
-  <si>
-    <t>Half size
-A number</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -175,15 +146,9 @@
     <t>I</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>button</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Lựa chọn chế độ mặc định không hình nền.</t>
   </si>
   <si>
@@ -193,9 +158,6 @@
     <t>checkbox</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t xml:space="preserve">input hình nền </t>
   </si>
   <si>
@@ -211,9 +173,6 @@
     <t>I/O/IO</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Initial value</t>
   </si>
   <si>
@@ -223,13 +182,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>Length</t>
-  </si>
-  <si>
-    <t>attribute</t>
   </si>
   <si>
     <t>Symbol name</t>
@@ -319,16 +272,7 @@
     <t>Form number</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>DAO</t>
-  </si>
-  <si>
-    <t>BLO</t>
-  </si>
-  <si>
-    <t>VIEW</t>
+    <t>{0} Image</t>
   </si>
 </sst>
 </file>
@@ -402,18 +346,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,14 +365,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -725,112 +657,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -839,7 +665,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -847,9 +673,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,46 +691,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
@@ -922,174 +736,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2569,8 +2340,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17963</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:to>
@@ -2584,9 +2355,9 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="11413067" cy="502920"/>
+          <a:ext cx="10059430" cy="502920"/>
           <a:chOff x="0" y="2"/>
-          <a:chExt cx="1121" cy="52"/>
+          <a:chExt cx="1120" cy="52"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -2612,7 +2383,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="0" y="2"/>
-            <a:ext cx="1121" cy="52"/>
+            <a:ext cx="1120" cy="52"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2776,7 +2547,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="727" y="9"/>
-            <a:ext cx="384" cy="17"/>
+            <a:ext cx="297" cy="22"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3284,7 +3055,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>510540</xdr:rowOff>
@@ -3299,7 +3070,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="7620"/>
-          <a:ext cx="11482493" cy="502920"/>
+          <a:ext cx="9348893" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3943,691 +3714,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2455333</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>663787</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 199"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9177866" cy="663787"/>
-          <a:chOff x="0" y="2"/>
-          <a:chExt cx="1121" cy="52"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="32468"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="2"/>
-            <a:ext cx="1121" cy="52"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 201"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="287" y="10"/>
-            <a:ext cx="274" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen item definition</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 202"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="565" y="11"/>
-            <a:ext cx="155" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>system-name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 203"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="727" y="9"/>
-            <a:ext cx="384" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Aidiko dojo's Member Management</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Text Box 204"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="163" y="10"/>
-            <a:ext cx="122" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 205"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="566" y="34"/>
-            <a:ext cx="155" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen ID</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 206"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="161" y="34"/>
-            <a:ext cx="394" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Setting</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 207"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="725" y="33"/>
-            <a:ext cx="393" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD007</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 208"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4" y="11"/>
-            <a:ext cx="154" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Form number</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Text Box 209"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3" y="34"/>
-            <a:ext cx="154" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>screen name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="01_Screen Layout"/>
-      <sheetName val="02_Item Definition"/>
-      <sheetName val="03_Definition"/>
-      <sheetName val="04_check Condition Monadic"/>
-      <sheetName val="05_Check Condition"/>
-      <sheetName val="06_Mapping Class, Action"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4895,7 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -4911,19 +3997,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4941,23 +4027,24 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="9.44140625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="29.77734375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="39.5546875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="0.109375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="0.21875" style="21" customWidth="1"/>
     <col min="14" max="14" width="1.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
@@ -4965,167 +4052,143 @@
   <sheetData>
     <row r="1" spans="1:13" ht="55.5" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>41</v>
-      </c>
+      <c r="A2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="32.700000000000003" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>1</v>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17.350000000000001" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="H5" s="22"/>
       <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -5147,341 +4210,338 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="29"/>
-    <col min="3" max="3" width="9.77734375" style="29" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="29"/>
-    <col min="11" max="11" width="8.6640625" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="2" width="8.88671875" style="25"/>
+    <col min="3" max="3" width="9.77734375" style="25" customWidth="1"/>
+    <col min="4" max="10" width="8.88671875" style="25"/>
+    <col min="11" max="11" width="8.6640625" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="A1" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="A2" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="20.7" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
+      <c r="A3" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
+      <c r="A4" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="A8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1">
-      <c r="A9" s="30">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+      <c r="B9" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="E10" s="32"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
+      <c r="A13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A14" s="30">
+      <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
+      <c r="B14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="26.7" customHeight="1">
-      <c r="A15" s="30">
+      <c r="A15" s="26">
         <v>2</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
+      <c r="B15" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" ht="35.35" customHeight="1">
-      <c r="A16" s="30">
+      <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
+      <c r="B16" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:11" ht="13.35" customHeight="1"/>
     <row r="21" spans="1:11" ht="11.35" customHeight="1"/>
     <row r="22" spans="1:11" ht="15" customHeight="1"/>
     <row r="23" spans="1:11" ht="15" customHeight="1"/>
     <row r="24" spans="1:11" ht="13.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:11" ht="13.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:L16"/>
     <mergeCell ref="E13:L13"/>
@@ -5494,13 +4554,16 @@
     <mergeCell ref="E14:L14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:L15"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -5520,10 +4583,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -5531,235 +4594,168 @@
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="12" width="6.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="56.35" customHeight="1">
-      <c r="L1" s="24"/>
-      <c r="O1" s="24"/>
+    <row r="1" spans="1:10" ht="56.35" customHeight="1">
+      <c r="G1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="70" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="14" t="s">
+    <row r="3" spans="1:10" ht="70" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A4" s="7">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="H4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="I4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A5" s="7">
         <f>ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="H5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="I5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A6" s="7">
         <f>ROW()-2</f>
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="H6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="I6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="F7" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
@@ -5770,311 +4766,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35"/>
-  <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="11" max="24" width="8.88671875" style="87"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-    </row>
-    <row r="15" spans="1:24" s="87" customFormat="1">
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-    </row>
-    <row r="16" spans="1:24" s="87" customFormat="1">
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-    </row>
-    <row r="17" s="87" customFormat="1"/>
-    <row r="18" s="87" customFormat="1"/>
-    <row r="19" s="87" customFormat="1"/>
-    <row r="20" s="87" customFormat="1"/>
-    <row r="21" s="87" customFormat="1"/>
-    <row r="22" s="87" customFormat="1"/>
-    <row r="23" s="87" customFormat="1"/>
-    <row r="24" s="87" customFormat="1"/>
-    <row r="25" s="87" customFormat="1"/>
-    <row r="26" s="87" customFormat="1"/>
-    <row r="27" s="87" customFormat="1"/>
-    <row r="28" s="87" customFormat="1"/>
-    <row r="29" s="87" customFormat="1"/>
-    <row r="30" s="87" customFormat="1"/>
-    <row r="31" s="87" customFormat="1"/>
-    <row r="32" s="87" customFormat="1"/>
-    <row r="33" s="87" customFormat="1"/>
-    <row r="34" s="87" customFormat="1"/>
-    <row r="35" s="87" customFormat="1"/>
-    <row r="36" s="87" customFormat="1"/>
-    <row r="37" s="87" customFormat="1"/>
-    <row r="38" s="87" customFormat="1"/>
-    <row r="39" s="87" customFormat="1"/>
-    <row r="40" s="87" customFormat="1"/>
-    <row r="41" s="87" customFormat="1"/>
-    <row r="42" s="87" customFormat="1"/>
-    <row r="43" s="87" customFormat="1"/>
-    <row r="44" s="87" customFormat="1"/>
-    <row r="45" s="87" customFormat="1"/>
-    <row r="46" s="87" customFormat="1"/>
-    <row r="47" s="87" customFormat="1"/>
-    <row r="48" s="87" customFormat="1"/>
-    <row r="49" s="87" customFormat="1"/>
-    <row r="50" s="87" customFormat="1"/>
-    <row r="51" s="87" customFormat="1"/>
-    <row r="52" s="87" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/design-document/ScreenSetting.xlsx
+++ b/design-document/ScreenSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
@@ -751,12 +751,53 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,9 +834,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -805,41 +843,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,9 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1639,7 +1639,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="6019800" cy="502920"/>
+          <a:ext cx="7924800" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -2264,17 +2264,22 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85363</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5242560" cy="5608320"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1964266</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>189441</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 3"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2287,46 +2292,22 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="358140" y="167640"/>
-          <a:ext cx="5242560" cy="5608320"/>
+          <a:off x="347133" y="932030"/>
+          <a:ext cx="7103533" cy="5717478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3979,16 +3960,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="6.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="3.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0.21875" style="1" customWidth="1"/>
@@ -4011,6 +3992,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
+    <row r="42" ht="57.35" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -4218,330 +4200,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="44"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="20.7" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1">
       <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1">
       <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="58" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" ht="26.7" customHeight="1">
       <c r="A15" s="26">
         <v>2</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="58" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" ht="35.35" customHeight="1">
       <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:11" ht="13.35" customHeight="1"/>
     <row r="21" spans="1:11" ht="11.35" customHeight="1"/>
     <row r="22" spans="1:11" ht="15" customHeight="1"/>
     <row r="23" spans="1:11" ht="15" customHeight="1"/>
     <row r="24" spans="1:11" ht="13.35">
-      <c r="A24" s="60"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11" ht="13.35">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:L16"/>
     <mergeCell ref="E13:L13"/>
@@ -4555,20 +4544,13 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:L15"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4585,7 +4567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4613,7 +4595,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="31" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="16" t="s">

--- a/design-document/ScreenSetting.xlsx
+++ b/design-document/ScreenSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>－</t>
     <phoneticPr fontId="0"/>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>{0} Image</t>
+  </si>
+  <si>
+    <t>Lưu kkhông thành công</t>
   </si>
 </sst>
 </file>
@@ -754,113 +757,113 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3962,7 +3965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -4186,7 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:K29"/>
     </sheetView>
   </sheetViews>
@@ -4200,323 +4203,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="54"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="59"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="20.7" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1">
       <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="45" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="40" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1">
       <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="47" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:12" ht="26.7" customHeight="1">
       <c r="A15" s="26">
         <v>2</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="47" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
     </row>
     <row r="16" spans="1:12" ht="35.35" customHeight="1">
       <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
     </row>
     <row r="17" spans="1:11" ht="13.35" customHeight="1"/>
     <row r="21" spans="1:11" ht="11.35" customHeight="1"/>
     <row r="22" spans="1:11" ht="15" customHeight="1"/>
     <row r="23" spans="1:11" ht="15" customHeight="1"/>
     <row r="24" spans="1:11" ht="13.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" ht="13.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -4531,26 +4554,6 @@
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4568,7 +4571,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -4730,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>1</v>

--- a/design-document/ScreenSetting.xlsx
+++ b/design-document/ScreenSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7307"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>－</t>
     <phoneticPr fontId="0"/>
@@ -195,25 +195,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t xml:space="preserve">-Admin tick combo box "Mặc định" và click "Save" hệ thống sẽ bỏ ảnh nền và xóa ảnh khỏi cơ sở dữ liệu. </t>
-  </si>
-  <si>
-    <t>Chuyển chế độ mặc đinh</t>
-  </si>
-  <si>
-    <t>Admin click "Save " để cài đặt ảnh cho hình nền in, hệ thống se lưu lại dưới cơ sở dữ liệu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lưu hình nên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin chọn hình từ hệ thống, sau đó hệ thống sẽ load ảnh lên khung hình nền.
-</t>
-  </si>
-  <si>
-    <t>Load hình nền</t>
-  </si>
-  <si>
     <t>Process details</t>
   </si>
   <si>
@@ -276,6 +257,19 @@
   </si>
   <si>
     <t>Lưu kkhông thành công</t>
+  </si>
+  <si>
+    <t>Chọn hình nền</t>
+  </si>
+  <si>
+    <t>Chọn mặc định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin click "Hình nền" để cài nền in, hệ thống hiện khung ảnh cho admin chọn, sau đó hệ thống sẽ load ảnh lên khung hình nền và lưu lại.
+</t>
+  </si>
+  <si>
+    <t>Admin click "Mặc định" sẽ lưu lại ảnh nền in là mặc định không có nền. (Nền trắng)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +662,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -847,19 +841,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -2270,39 +2267,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>347133</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85363</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>694267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1964266</xdr:colOff>
+      <xdr:colOff>1964267</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>189441</xdr:rowOff>
+      <xdr:rowOff>433661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="23" name="Picture 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="347133" y="932030"/>
-          <a:ext cx="7103533" cy="5717478"/>
+          <a:off x="0" y="694267"/>
+          <a:ext cx="7450667" cy="6199461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3965,17 +3956,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="31.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="3.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.33203125" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
@@ -4021,15 +4012,15 @@
     <col min="2" max="2" width="15.109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="21" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="21" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="21" customWidth="1"/>
     <col min="10" max="10" width="39.5546875" style="21" customWidth="1"/>
     <col min="11" max="11" width="0.109375" style="21" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="0.21875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="0.33203125" style="21" customWidth="1"/>
     <col min="14" max="14" width="1.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
@@ -4071,7 +4062,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.5" customHeight="1">
       <c r="A3" s="7">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4141,7 +4132,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="5" spans="1:13" ht="17.5" customHeight="1">
       <c r="A5" s="7">
         <f>ROW()-2</f>
         <v>3</v>
@@ -4189,14 +4180,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:K29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="25"/>
-    <col min="3" max="3" width="9.77734375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="25" customWidth="1"/>
     <col min="4" max="10" width="8.88671875" style="25"/>
     <col min="11" max="11" width="8.6640625" style="25" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="25"/>
@@ -4204,22 +4195,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E1" s="43"/>
       <c r="F1" s="43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="43"/>
       <c r="H1" s="51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I1" s="52"/>
       <c r="J1" s="52"/>
@@ -4228,20 +4219,20 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="54"/>
       <c r="F2" s="45" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G2" s="45"/>
       <c r="H2" s="35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -4250,11 +4241,11 @@
     </row>
     <row r="3" spans="1:12" ht="20.7" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -4268,7 +4259,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="39"/>
@@ -4288,22 +4279,22 @@
     </row>
     <row r="6" spans="1:12" ht="13.35">
       <c r="A6" s="38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
       <c r="E8" s="60" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
@@ -4317,43 +4308,43 @@
       <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>52</v>
+      <c r="B9" s="64" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
-      <c r="E9" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="E9" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
       <c r="A11" s="38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
       <c r="E13" s="60" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="61"/>
@@ -4368,12 +4359,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
-      <c r="E14" s="66" t="s">
-        <v>45</v>
+      <c r="E14" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
@@ -4388,12 +4379,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
-      <c r="E15" s="66" t="s">
-        <v>43</v>
+      <c r="E15" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
@@ -4403,18 +4394,12 @@
       <c r="K15" s="58"/>
       <c r="L15" s="59"/>
     </row>
-    <row r="16" spans="1:12" ht="35.35" customHeight="1">
-      <c r="A16" s="26">
-        <v>3</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>42</v>
-      </c>
+    <row r="16" spans="1:12" ht="35.5" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
-      <c r="E16" s="57" t="s">
-        <v>41</v>
-      </c>
+      <c r="E16" s="57"/>
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
@@ -4424,47 +4409,47 @@
       <c r="L16" s="59"/>
     </row>
     <row r="17" spans="1:11" ht="13.35" customHeight="1"/>
-    <row r="21" spans="1:11" ht="11.35" customHeight="1"/>
+    <row r="21" spans="1:11" ht="11.5" customHeight="1"/>
     <row r="22" spans="1:11" ht="15" customHeight="1"/>
     <row r="23" spans="1:11" ht="15" customHeight="1"/>
     <row r="24" spans="1:11" ht="13.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
     </row>
     <row r="25" spans="1:11" ht="13.35">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="50"/>
@@ -4582,14 +4567,14 @@
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="1" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="56.35" customHeight="1">
+    <row r="1" spans="1:10" ht="56.5" customHeight="1">
       <c r="G1" s="20"/>
       <c r="J1" s="20"/>
     </row>
@@ -4670,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>0</v>
@@ -4733,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>1</v>
